--- a/SWT results.xlsx
+++ b/SWT results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Ng\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Andrew Ng\Desktop\FYP_SWT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE19E7D2-7D44-45F1-8D3C-A581E28632C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2359994-4C47-4766-9720-103FE2AD0A62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -527,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -548,9 +548,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -835,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G75" sqref="G75"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1110,13 +1107,13 @@
       <c r="B11" t="s">
         <v>76</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E11" s="9">
         <v>0.171455</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F11" s="9">
         <v>0.10671899999999999</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="9">
         <v>0.765961</v>
       </c>
       <c r="H11" t="s">
@@ -1920,13 +1917,13 @@
       <c r="A56" t="s">
         <v>144</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <v>0.108638</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F56" s="9">
         <v>8.4079000000000001E-2</v>
       </c>
-      <c r="G56" s="10">
+      <c r="G56" s="9">
         <v>0.244449</v>
       </c>
       <c r="H56" t="s">
@@ -2241,13 +2238,13 @@
       <c r="B73" t="s">
         <v>29</v>
       </c>
-      <c r="E73" s="10">
+      <c r="E73" s="9">
         <v>5.6800000000000002E-3</v>
       </c>
-      <c r="F73" s="10">
+      <c r="F73" s="9">
         <v>4.4640000000000001E-3</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="9">
         <v>1.4317E-2</v>
       </c>
       <c r="H73" t="s">
@@ -2284,13 +2281,13 @@
       <c r="B75" t="s">
         <v>37</v>
       </c>
-      <c r="E75" s="10">
+      <c r="E75" s="9">
         <v>7.3039999999999997E-3</v>
       </c>
-      <c r="F75" s="10">
+      <c r="F75" s="9">
         <v>5.6350000000000003E-3</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="9">
         <v>1.7942E-2</v>
       </c>
       <c r="H75" t="s">
